--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,17 +548,17 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ref="G4:G14" si="0">SUM(D4:F4)</f>
+        <f t="shared" ref="G4:G13" si="0">SUM(D4:F4)</f>
         <v>73.209999999999994</v>
       </c>
     </row>
@@ -759,17 +759,17 @@
         <v>13</v>
       </c>
       <c r="D11" s="9">
-        <v>81.900000000000006</v>
+        <v>91.54</v>
       </c>
       <c r="E11" s="10">
-        <v>24.2</v>
+        <v>31.32</v>
       </c>
       <c r="F11" s="11">
-        <v>26.04</v>
+        <v>42.99</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>132.14000000000001</v>
+        <v>165.85000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -840,19 +840,19 @@
       </c>
       <c r="D15" s="3">
         <f>SUM(D3:D14)</f>
-        <v>560.23</v>
+        <v>569.87</v>
       </c>
       <c r="E15" s="4">
         <f>SUM(E3:E14)</f>
-        <v>35.04</v>
+        <v>42.16</v>
       </c>
       <c r="F15" s="5">
         <f>SUM(F3:F14)</f>
-        <v>112.97</v>
+        <v>129.92000000000002</v>
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>708.24</v>
+        <v>741.95</v>
       </c>
     </row>
   </sheetData>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,17 +931,17 @@
         <v>2016</v>
       </c>
       <c r="F7" s="9">
-        <v>560.23</v>
+        <v>569.87</v>
       </c>
       <c r="G7" s="10">
-        <v>35.04</v>
+        <v>42.16</v>
       </c>
       <c r="H7" s="11">
-        <v>112.97</v>
+        <v>129.91999999999999</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>708.24</v>
+        <v>741.94999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1749,19 +1749,19 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>743.96</v>
+        <v>753.6</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>35.04</v>
+        <v>42.16</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>143.71</v>
+        <v>160.66</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>922.71</v>
+        <v>956.42</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12792" windowHeight="11988"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,6 +358,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -393,6 +410,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,26 +581,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -583,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -604,7 +638,7 @@
         <v>30.66</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -625,7 +659,7 @@
         <v>73.209999999999994</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -646,7 +680,7 @@
         <v>117.92</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -667,7 +701,7 @@
         <v>37.21</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -688,7 +722,7 @@
         <v>70.34</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -709,7 +743,7 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>7</v>
       </c>
@@ -730,7 +764,7 @@
         <v>22.35</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -751,7 +785,7 @@
         <v>78.61</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -759,7 +793,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="9">
-        <v>91.54</v>
+        <v>94.57</v>
       </c>
       <c r="E11" s="10">
         <v>31.32</v>
@@ -769,10 +803,10 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>165.85000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>168.88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -780,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="9">
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
@@ -790,10 +824,10 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -814,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>12</v>
       </c>
@@ -834,13 +868,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="3">
         <f>SUM(D3:D14)</f>
-        <v>569.87</v>
+        <v>590.44999999999993</v>
       </c>
       <c r="E15" s="4">
         <f>SUM(E3:E14)</f>
@@ -852,7 +886,7 @@
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>741.95</v>
+        <v>762.53</v>
       </c>
     </row>
   </sheetData>
@@ -865,27 +899,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="E5" s="17" t="s">
         <v>17</v>
       </c>
@@ -902,7 +936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D6" s="7">
         <v>1</v>
       </c>
@@ -923,7 +957,7 @@
         <v>214.47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D7" s="7">
         <v>2</v>
       </c>
@@ -931,7 +965,7 @@
         <v>2016</v>
       </c>
       <c r="F7" s="9">
-        <v>569.87</v>
+        <v>590.45000000000005</v>
       </c>
       <c r="G7" s="10">
         <v>42.16</v>
@@ -941,10 +975,10 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>741.94999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>762.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D8" s="7">
         <v>3</v>
       </c>
@@ -965,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D9" s="7">
         <v>4</v>
       </c>
@@ -986,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D10" s="7">
         <v>5</v>
       </c>
@@ -1007,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D11" s="7">
         <v>6</v>
       </c>
@@ -1028,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D12" s="7">
         <v>7</v>
       </c>
@@ -1049,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D13" s="7">
         <v>8</v>
       </c>
@@ -1070,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D14" s="7">
         <v>9</v>
       </c>
@@ -1091,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D15" s="7">
         <v>10</v>
       </c>
@@ -1112,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D16" s="7">
         <v>11</v>
       </c>
@@ -1133,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D17" s="7">
         <v>12</v>
       </c>
@@ -1154,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D18" s="7">
         <v>13</v>
       </c>
@@ -1175,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D19" s="7">
         <v>14</v>
       </c>
@@ -1196,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D20" s="7">
         <v>15</v>
       </c>
@@ -1217,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D21" s="7">
         <v>16</v>
       </c>
@@ -1238,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D22" s="7">
         <v>17</v>
       </c>
@@ -1259,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D23" s="7">
         <v>18</v>
       </c>
@@ -1280,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D24" s="7">
         <v>19</v>
       </c>
@@ -1301,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D25" s="7">
         <v>20</v>
       </c>
@@ -1322,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D26" s="7">
         <v>21</v>
       </c>
@@ -1343,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D27" s="7">
         <v>22</v>
       </c>
@@ -1364,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D28" s="7">
         <v>23</v>
       </c>
@@ -1385,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D29" s="7">
         <v>24</v>
       </c>
@@ -1406,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D30" s="7">
         <v>25</v>
       </c>
@@ -1427,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D31" s="7">
         <v>26</v>
       </c>
@@ -1448,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D32" s="7">
         <v>27</v>
       </c>
@@ -1469,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D33" s="7">
         <v>28</v>
       </c>
@@ -1490,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D34" s="7">
         <v>29</v>
       </c>
@@ -1511,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D35" s="7">
         <v>30</v>
       </c>
@@ -1532,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D36" s="7">
         <v>31</v>
       </c>
@@ -1553,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D37" s="7">
         <v>32</v>
       </c>
@@ -1574,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D38" s="7">
         <v>33</v>
       </c>
@@ -1595,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D39" s="7">
         <v>34</v>
       </c>
@@ -1616,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D40" s="7">
         <v>35</v>
       </c>
@@ -1637,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D41" s="7">
         <v>36</v>
       </c>
@@ -1658,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D42" s="7">
         <v>37</v>
       </c>
@@ -1679,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D43" s="7">
         <v>38</v>
       </c>
@@ -1700,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D44" s="7">
         <v>39</v>
       </c>
@@ -1721,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D45" s="7">
         <v>40</v>
       </c>
@@ -1742,14 +1776,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:9" ht="18" x14ac:dyDescent="0.35">
       <c r="D46" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>753.6</v>
+        <v>774.18000000000006</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -1761,7 +1795,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>956.42</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12792" windowHeight="11988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12792" windowHeight="11988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,11 +820,11 @@
         <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>0</v>
+        <v>7.88</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>17.55</v>
+        <v>25.43</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="18" x14ac:dyDescent="0.35">
@@ -882,11 +882,11 @@
       </c>
       <c r="F15" s="5">
         <f>SUM(F3:F14)</f>
-        <v>129.92000000000002</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>762.53</v>
+        <v>770.41</v>
       </c>
     </row>
   </sheetData>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,11 +971,11 @@
         <v>42.16</v>
       </c>
       <c r="H7" s="11">
-        <v>129.91999999999999</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>762.53</v>
+        <v>770.41000000000008</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1791,11 +1791,11 @@
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>160.66</v>
+        <v>168.54000000000002</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>977</v>
+        <v>984.88000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -582,7 +582,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="9">
-        <v>17.55</v>
+        <v>35.24</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
@@ -824,7 +824,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>25.43</v>
+        <v>43.120000000000005</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="18" x14ac:dyDescent="0.35">
@@ -874,7 +874,7 @@
       </c>
       <c r="D15" s="3">
         <f>SUM(D3:D14)</f>
-        <v>590.44999999999993</v>
+        <v>608.14</v>
       </c>
       <c r="E15" s="4">
         <f>SUM(E3:E14)</f>
@@ -886,7 +886,7 @@
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>770.41</v>
+        <v>788.1</v>
       </c>
     </row>
   </sheetData>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,7 +965,7 @@
         <v>2016</v>
       </c>
       <c r="F7" s="9">
-        <v>590.45000000000005</v>
+        <v>608.14</v>
       </c>
       <c r="G7" s="10">
         <v>42.16</v>
@@ -975,7 +975,7 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>770.41000000000008</v>
+        <v>788.09999999999991</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -1783,7 +1783,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>774.18000000000006</v>
+        <v>791.87</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>984.88000000000011</v>
+        <v>1002.5699999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12792" windowHeight="11988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,23 +358,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -410,23 +393,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,25 +548,25 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -617,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -638,7 +604,7 @@
         <v>30.66</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -659,7 +625,7 @@
         <v>73.209999999999994</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -680,7 +646,7 @@
         <v>117.92</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -701,7 +667,7 @@
         <v>37.21</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -722,7 +688,7 @@
         <v>70.34</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -743,7 +709,7 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>7</v>
       </c>
@@ -764,7 +730,7 @@
         <v>22.35</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -785,7 +751,7 @@
         <v>78.61</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -806,7 +772,7 @@
         <v>168.88</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -820,14 +786,14 @@
         <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>7.88</v>
+        <v>13.08</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>43.120000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+        <v>48.32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -848,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>12</v>
       </c>
@@ -868,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
@@ -882,11 +848,11 @@
       </c>
       <c r="F15" s="5">
         <f>SUM(F3:F14)</f>
-        <v>137.80000000000001</v>
+        <v>143.00000000000003</v>
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>788.1</v>
+        <v>793.30000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -899,27 +865,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="17" t="s">
         <v>17</v>
       </c>
@@ -936,7 +902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D6" s="7">
         <v>1</v>
       </c>
@@ -957,7 +923,7 @@
         <v>214.47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D7" s="7">
         <v>2</v>
       </c>
@@ -965,20 +931,23 @@
         <v>2016</v>
       </c>
       <c r="F7" s="9">
+        <f>Yearly!D15</f>
         <v>608.14</v>
       </c>
       <c r="G7" s="10">
+        <f>Yearly!E15</f>
         <v>42.16</v>
       </c>
       <c r="H7" s="11">
-        <v>137.80000000000001</v>
+        <f>Yearly!F15</f>
+        <v>143.00000000000003</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>788.09999999999991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>793.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D8" s="7">
         <v>3</v>
       </c>
@@ -999,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D9" s="7">
         <v>4</v>
       </c>
@@ -1020,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D10" s="7">
         <v>5</v>
       </c>
@@ -1041,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D11" s="7">
         <v>6</v>
       </c>
@@ -1062,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D12" s="7">
         <v>7</v>
       </c>
@@ -1083,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D13" s="7">
         <v>8</v>
       </c>
@@ -1104,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D14" s="7">
         <v>9</v>
       </c>
@@ -1125,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D15" s="7">
         <v>10</v>
       </c>
@@ -1146,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D16" s="7">
         <v>11</v>
       </c>
@@ -1167,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D17" s="7">
         <v>12</v>
       </c>
@@ -1188,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D18" s="7">
         <v>13</v>
       </c>
@@ -1209,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D19" s="7">
         <v>14</v>
       </c>
@@ -1230,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D20" s="7">
         <v>15</v>
       </c>
@@ -1251,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D21" s="7">
         <v>16</v>
       </c>
@@ -1272,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="7">
         <v>17</v>
       </c>
@@ -1293,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D23" s="7">
         <v>18</v>
       </c>
@@ -1314,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D24" s="7">
         <v>19</v>
       </c>
@@ -1335,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D25" s="7">
         <v>20</v>
       </c>
@@ -1356,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D26" s="7">
         <v>21</v>
       </c>
@@ -1377,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D27" s="7">
         <v>22</v>
       </c>
@@ -1398,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="7">
         <v>23</v>
       </c>
@@ -1419,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D29" s="7">
         <v>24</v>
       </c>
@@ -1440,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D30" s="7">
         <v>25</v>
       </c>
@@ -1461,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D31" s="7">
         <v>26</v>
       </c>
@@ -1482,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D32" s="7">
         <v>27</v>
       </c>
@@ -1503,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D33" s="7">
         <v>28</v>
       </c>
@@ -1524,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D34" s="7">
         <v>29</v>
       </c>
@@ -1545,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D35" s="7">
         <v>30</v>
       </c>
@@ -1566,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D36" s="7">
         <v>31</v>
       </c>
@@ -1587,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D37" s="7">
         <v>32</v>
       </c>
@@ -1608,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D38" s="7">
         <v>33</v>
       </c>
@@ -1629,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D39" s="7">
         <v>34</v>
       </c>
@@ -1650,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D40" s="7">
         <v>35</v>
       </c>
@@ -1671,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D41" s="7">
         <v>36</v>
       </c>
@@ -1692,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D42" s="7">
         <v>37</v>
       </c>
@@ -1713,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D43" s="7">
         <v>38</v>
       </c>
@@ -1734,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D44" s="7">
         <v>39</v>
       </c>
@@ -1755,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D45" s="7">
         <v>40</v>
       </c>
@@ -1776,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D46" s="13" t="s">
         <v>20</v>
       </c>
@@ -1791,11 +1760,11 @@
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>168.54000000000002</v>
+        <v>173.74000000000004</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1002.5699999999999</v>
+        <v>1007.77</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="9">
-        <v>0</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
@@ -811,7 +811,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66.150000000000006</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -840,7 +840,7 @@
       </c>
       <c r="D15" s="3">
         <f>SUM(D3:D14)</f>
-        <v>608.14</v>
+        <v>674.29</v>
       </c>
       <c r="E15" s="4">
         <f>SUM(E3:E14)</f>
@@ -852,7 +852,7 @@
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>793.30000000000007</v>
+        <v>859.45</v>
       </c>
     </row>
   </sheetData>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="F7" s="9">
         <f>Yearly!D15</f>
-        <v>608.14</v>
+        <v>674.29</v>
       </c>
       <c r="G7" s="10">
         <f>Yearly!E15</f>
@@ -944,7 +944,7 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>793.3</v>
+        <v>859.44999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1752,7 +1752,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>791.87</v>
+        <v>858.02</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1007.77</v>
+        <v>1073.9199999999998</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,6 +358,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -393,6 +410,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,7 +582,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H13" sqref="D13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,17 +835,17 @@
         <v>15</v>
       </c>
       <c r="D13" s="9">
-        <v>66.150000000000006</v>
+        <v>89.57</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>12.96</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>66.150000000000006</v>
+        <v>111.72999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -840,19 +874,19 @@
       </c>
       <c r="D15" s="3">
         <f>SUM(D3:D14)</f>
-        <v>674.29</v>
+        <v>697.71</v>
       </c>
       <c r="E15" s="4">
         <f>SUM(E3:E14)</f>
-        <v>42.16</v>
+        <v>51.36</v>
       </c>
       <c r="F15" s="5">
         <f>SUM(F3:F14)</f>
-        <v>143.00000000000003</v>
+        <v>155.96000000000004</v>
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>859.45</v>
+        <v>905.03000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -865,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,19 +966,19 @@
       </c>
       <c r="F7" s="9">
         <f>Yearly!D15</f>
-        <v>674.29</v>
+        <v>697.71</v>
       </c>
       <c r="G7" s="10">
         <f>Yearly!E15</f>
-        <v>42.16</v>
+        <v>51.36</v>
       </c>
       <c r="H7" s="11">
         <f>Yearly!F15</f>
-        <v>143.00000000000003</v>
+        <v>155.96000000000004</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>859.44999999999993</v>
+        <v>905.03000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1752,19 +1786,19 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>858.02</v>
+        <v>881.44</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>42.16</v>
+        <v>51.36</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>173.74000000000004</v>
+        <v>186.70000000000005</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1073.9199999999998</v>
+        <v>1119.5</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -582,7 +582,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="D13:H13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="9">
-        <v>89.57</v>
+        <v>102.41</v>
       </c>
       <c r="E13" s="10">
         <v>9.1999999999999993</v>
@@ -845,7 +845,7 @@
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>111.72999999999999</v>
+        <v>124.57</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
       </c>
       <c r="D15" s="3">
         <f>SUM(D3:D14)</f>
-        <v>697.71</v>
+        <v>710.55</v>
       </c>
       <c r="E15" s="4">
         <f>SUM(E3:E14)</f>
@@ -886,7 +886,7 @@
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>905.03000000000009</v>
+        <v>917.87000000000012</v>
       </c>
     </row>
   </sheetData>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="F7" s="9">
         <f>Yearly!D15</f>
-        <v>697.71</v>
+        <v>710.55</v>
       </c>
       <c r="G7" s="10">
         <f>Yearly!E15</f>
@@ -978,7 +978,7 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>905.03000000000009</v>
+        <v>917.87</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1786,7 +1786,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>881.44</v>
+        <v>894.28</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1119.5</v>
+        <v>1132.3399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,23 +358,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -410,23 +393,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -581,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="12">
-        <f t="shared" ref="G4:G13" si="0">SUM(D4:F4)</f>
+        <f t="shared" ref="G4:G14" si="0">SUM(D4:F4)</f>
         <v>73.209999999999994</v>
       </c>
     </row>
@@ -862,10 +828,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="G14" s="12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.99</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -882,11 +849,11 @@
       </c>
       <c r="F15" s="5">
         <f>SUM(F3:F14)</f>
-        <v>155.96000000000004</v>
+        <v>158.95000000000005</v>
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>917.87000000000012</v>
+        <v>920.86000000000013</v>
       </c>
     </row>
   </sheetData>
@@ -899,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,11 +941,11 @@
       </c>
       <c r="H7" s="11">
         <f>Yearly!F15</f>
-        <v>155.96000000000004</v>
+        <v>158.95000000000005</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>917.87</v>
+        <v>920.86</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1794,11 +1761,11 @@
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>186.70000000000005</v>
+        <v>189.69000000000005</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1132.3399999999999</v>
+        <v>1135.33</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,17 +822,17 @@
         <v>16</v>
       </c>
       <c r="D14" s="9">
-        <v>0</v>
+        <v>57.19</v>
       </c>
       <c r="E14" s="10">
-        <v>0</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F14" s="11">
-        <v>2.99</v>
+        <v>19.41</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>2.99</v>
+        <v>93.699999999999989</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -841,19 +841,19 @@
       </c>
       <c r="D15" s="3">
         <f>SUM(D3:D14)</f>
-        <v>710.55</v>
+        <v>767.74</v>
       </c>
       <c r="E15" s="4">
         <f>SUM(E3:E14)</f>
-        <v>51.36</v>
+        <v>68.460000000000008</v>
       </c>
       <c r="F15" s="5">
         <f>SUM(F3:F14)</f>
-        <v>158.95000000000005</v>
+        <v>175.37000000000003</v>
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>920.86000000000013</v>
+        <v>1011.5700000000002</v>
       </c>
     </row>
   </sheetData>
@@ -866,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
@@ -933,19 +933,19 @@
       </c>
       <c r="F7" s="9">
         <f>Yearly!D15</f>
-        <v>710.55</v>
+        <v>767.74</v>
       </c>
       <c r="G7" s="10">
         <f>Yearly!E15</f>
-        <v>51.36</v>
+        <v>68.460000000000008</v>
       </c>
       <c r="H7" s="11">
         <f>Yearly!F15</f>
-        <v>158.95000000000005</v>
+        <v>175.37000000000003</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>920.86</v>
+        <v>1011.57</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1753,19 +1753,19 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>894.28</v>
+        <v>951.47</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>51.36</v>
+        <v>68.460000000000008</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>189.69000000000005</v>
+        <v>206.11000000000004</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1135.33</v>
+        <v>1226.04</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,6 +358,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -393,6 +410,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,7 +582,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="9">
-        <v>57.19</v>
+        <v>133.62</v>
       </c>
       <c r="E14" s="10">
         <v>17.100000000000001</v>
@@ -832,7 +866,7 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>93.699999999999989</v>
+        <v>170.13</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -841,7 +875,7 @@
       </c>
       <c r="D15" s="3">
         <f>SUM(D3:D14)</f>
-        <v>767.74</v>
+        <v>844.17</v>
       </c>
       <c r="E15" s="4">
         <f>SUM(E3:E14)</f>
@@ -853,7 +887,7 @@
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>1011.5700000000002</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -866,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +967,7 @@
       </c>
       <c r="F7" s="9">
         <f>Yearly!D15</f>
-        <v>767.74</v>
+        <v>844.17</v>
       </c>
       <c r="G7" s="10">
         <f>Yearly!E15</f>
@@ -945,7 +979,7 @@
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>1011.57</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1753,7 +1787,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>951.47</v>
+        <v>1027.8999999999999</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -1765,7 +1799,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1226.04</v>
+        <v>1302.47</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -582,7 +582,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,14 +859,14 @@
         <v>133.62</v>
       </c>
       <c r="E14" s="10">
-        <v>17.100000000000001</v>
+        <v>40.29</v>
       </c>
       <c r="F14" s="11">
-        <v>19.41</v>
+        <v>49.22</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>170.13</v>
+        <v>223.13</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -879,15 +879,15 @@
       </c>
       <c r="E15" s="4">
         <f>SUM(E3:E14)</f>
-        <v>68.460000000000008</v>
+        <v>91.65</v>
       </c>
       <c r="F15" s="5">
         <f>SUM(F3:F14)</f>
-        <v>175.37000000000003</v>
+        <v>205.18000000000004</v>
       </c>
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
-        <v>1088</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,15 +971,15 @@
       </c>
       <c r="G7" s="10">
         <f>Yearly!E15</f>
-        <v>68.460000000000008</v>
+        <v>91.65</v>
       </c>
       <c r="H7" s="11">
         <f>Yearly!F15</f>
-        <v>175.37000000000003</v>
+        <v>205.18000000000004</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
-        <v>1088</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1791,15 +1791,15 @@
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>68.460000000000008</v>
+        <v>91.65</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>206.11000000000004</v>
+        <v>235.92000000000004</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1302.47</v>
+        <v>1355.47</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,17 +990,17 @@
         <v>2017</v>
       </c>
       <c r="F8" s="9">
-        <v>0</v>
+        <v>21.64</v>
       </c>
       <c r="G8" s="10">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="H8" s="11">
         <v>0</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.19</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1787,11 +1787,11 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1027.8999999999999</v>
+        <v>1049.54</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>91.65</v>
+        <v>99.2</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1355.47</v>
+        <v>1384.66</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Month</t>
   </si>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,23 +358,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -410,23 +393,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -579,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,14 +559,23 @@
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -616,8 +591,23 @@
       <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -637,8 +627,27 @@
         <f>SUM(D3:F3)</f>
         <v>30.66</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="9">
+        <v>24.7</v>
+      </c>
+      <c r="M3" s="10">
+        <v>7.55</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <f>SUM(L3:N3)</f>
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -658,8 +667,27 @@
         <f t="shared" ref="G4:G14" si="0">SUM(D4:F4)</f>
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <f t="shared" ref="O4:O14" si="1">SUM(L4:N4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -679,8 +707,27 @@
         <f t="shared" si="0"/>
         <v>117.92</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J5" s="7">
+        <v>3</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -700,8 +747,27 @@
         <f t="shared" si="0"/>
         <v>37.21</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J6" s="7">
+        <v>4</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -721,8 +787,27 @@
         <f t="shared" si="0"/>
         <v>70.34</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J7" s="7">
+        <v>5</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -742,8 +827,27 @@
         <f t="shared" si="0"/>
         <v>145.80000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J8" s="7">
+        <v>6</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>7</v>
       </c>
@@ -763,8 +867,27 @@
         <f t="shared" si="0"/>
         <v>22.35</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J9" s="7">
+        <v>7</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -784,8 +907,27 @@
         <f t="shared" si="0"/>
         <v>78.61</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J10" s="7">
+        <v>8</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -805,8 +947,27 @@
         <f t="shared" si="0"/>
         <v>168.88</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J11" s="7">
+        <v>9</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -826,8 +987,27 @@
         <f t="shared" si="0"/>
         <v>48.32</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -847,8 +1027,27 @@
         <f t="shared" si="0"/>
         <v>124.57</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J13" s="7">
+        <v>11</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>12</v>
       </c>
@@ -868,8 +1067,27 @@
         <f t="shared" si="0"/>
         <v>223.13</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J14" s="7">
+        <v>12</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
@@ -888,6 +1106,25 @@
       <c r="G15" s="6">
         <f>SUM(G3:G14)</f>
         <v>1141</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3">
+        <f>SUM(L3:L14)</f>
+        <v>24.7</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUM(M3:M14)</f>
+        <v>7.55</v>
+      </c>
+      <c r="N15" s="5">
+        <f>SUM(N3:N14)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <f>SUM(O3:O14)</f>
+        <v>32.25</v>
       </c>
     </row>
   </sheetData>
@@ -900,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +1227,8 @@
         <v>2017</v>
       </c>
       <c r="F8" s="9">
-        <v>21.64</v>
+        <f>Yearly!L3</f>
+        <v>24.7</v>
       </c>
       <c r="G8" s="10">
         <v>7.55</v>
@@ -1000,7 +1238,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>29.19</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1787,7 +2025,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1049.54</v>
+        <v>1052.5999999999999</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -1799,7 +2037,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1384.66</v>
+        <v>1387.72</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,6 +358,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -393,6 +410,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,17 +668,17 @@
         <v>5</v>
       </c>
       <c r="L3" s="9">
-        <v>24.7</v>
+        <v>50.57</v>
       </c>
       <c r="M3" s="10">
-        <v>7.55</v>
+        <v>12.74</v>
       </c>
       <c r="N3" s="11">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="O3" s="12">
         <f>SUM(L3:N3)</f>
-        <v>32.25</v>
+        <v>68.570000000000007</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,19 +1146,19 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>24.7</v>
+        <v>50.57</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>7.55</v>
+        <v>12.74</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>32.25</v>
+        <v>68.570000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,17 +1262,17 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L3</f>
-        <v>24.7</v>
+        <v>50.57</v>
       </c>
       <c r="G8" s="10">
-        <v>7.55</v>
+        <v>12.74</v>
       </c>
       <c r="H8" s="11">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>32.25</v>
+        <v>68.570000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2025,19 +2059,19 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1052.5999999999999</v>
+        <v>1078.4699999999998</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>99.2</v>
+        <v>104.39</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>235.92000000000004</v>
+        <v>241.18000000000004</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1387.72</v>
+        <v>1424.04</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,23 +358,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -410,23 +393,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="9">
-        <v>50.57</v>
+        <v>57.62</v>
       </c>
       <c r="M3" s="10">
         <v>12.74</v>
@@ -678,7 +644,7 @@
       </c>
       <c r="O3" s="12">
         <f>SUM(L3:N3)</f>
-        <v>68.570000000000007</v>
+        <v>75.62</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1146,7 +1112,7 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>50.57</v>
+        <v>57.62</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
@@ -1158,7 +1124,7 @@
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>68.570000000000007</v>
+        <v>75.62</v>
       </c>
     </row>
   </sheetData>
@@ -1171,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1228,7 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L3</f>
-        <v>50.57</v>
+        <v>57.62</v>
       </c>
       <c r="G8" s="10">
         <v>12.74</v>
@@ -1272,7 +1238,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>68.570000000000007</v>
+        <v>75.62</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2059,7 +2025,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1078.4699999999998</v>
+        <v>1085.5199999999998</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -2071,7 +2037,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1424.04</v>
+        <v>1431.0900000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,17 +674,17 @@
         <v>6</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="M4" s="10">
         <v>0</v>
       </c>
       <c r="N4" s="11">
-        <v>0</v>
+        <v>22.05</v>
       </c>
       <c r="O4" s="12">
         <f t="shared" ref="O4:O14" si="1">SUM(L4:N4)</f>
-        <v>0</v>
+        <v>89.61999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>57.62</v>
+        <v>125.19</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
@@ -1120,11 +1120,11 @@
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>5.26</v>
+        <v>27.310000000000002</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>75.62</v>
+        <v>165.24</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,18 +1227,20 @@
         <v>2017</v>
       </c>
       <c r="F8" s="9">
-        <f>Yearly!L3</f>
-        <v>57.62</v>
+        <f>Yearly!L15</f>
+        <v>125.19</v>
       </c>
       <c r="G8" s="10">
+        <f>Yearly!M15</f>
         <v>12.74</v>
       </c>
       <c r="H8" s="11">
-        <v>5.26</v>
+        <f>Yearly!N15</f>
+        <v>27.310000000000002</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>75.62</v>
+        <v>165.24</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2025,7 +2027,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1085.5199999999998</v>
+        <v>1153.0899999999999</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -2033,11 +2035,11 @@
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>241.18000000000004</v>
+        <v>263.23</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1431.0900000000001</v>
+        <v>1520.71</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,17 +674,17 @@
         <v>6</v>
       </c>
       <c r="L4" s="9">
-        <v>67.569999999999993</v>
+        <v>104.14</v>
       </c>
       <c r="M4" s="10">
-        <v>0</v>
+        <v>9.74</v>
       </c>
       <c r="N4" s="11">
         <v>22.05</v>
       </c>
       <c r="O4" s="12">
         <f t="shared" ref="O4:O14" si="1">SUM(L4:N4)</f>
-        <v>89.61999999999999</v>
+        <v>135.93</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>125.19</v>
+        <v>161.76</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>12.74</v>
+        <v>22.48</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>165.24</v>
+        <v>211.55</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,11 +1228,11 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>125.19</v>
+        <v>161.76</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>12.74</v>
+        <v>22.48</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>165.24</v>
+        <v>211.54999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2027,11 +2027,11 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1153.0899999999999</v>
+        <v>1189.6599999999999</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>104.39</v>
+        <v>114.13000000000001</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1520.71</v>
+        <v>1567.02</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,17 +714,17 @@
         <v>7</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="M5" s="10">
-        <v>0</v>
+        <v>10.24</v>
       </c>
       <c r="N5" s="11">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,19 +1112,19 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>161.76</v>
+        <v>177.51</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>22.48</v>
+        <v>32.72</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>27.310000000000002</v>
+        <v>30.32</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>211.55</v>
+        <v>240.55</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,19 +1228,19 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>161.76</v>
+        <v>177.51</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>22.48</v>
+        <v>32.72</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>27.310000000000002</v>
+        <v>30.32</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>211.54999999999998</v>
+        <v>240.54999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2027,19 +2027,19 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1189.6599999999999</v>
+        <v>1205.4099999999999</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>114.13000000000001</v>
+        <v>124.37</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>263.23</v>
+        <v>266.24000000000007</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1567.02</v>
+        <v>1596.02</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,17 +714,17 @@
         <v>7</v>
       </c>
       <c r="L5" s="9">
-        <v>15.75</v>
+        <v>83.58</v>
       </c>
       <c r="M5" s="10">
-        <v>10.24</v>
+        <v>36.31</v>
       </c>
       <c r="N5" s="11">
-        <v>3.01</v>
+        <v>27.02</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>146.91</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,19 +1112,19 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>177.51</v>
+        <v>245.33999999999997</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>32.72</v>
+        <v>58.790000000000006</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>30.32</v>
+        <v>54.33</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>240.55</v>
+        <v>358.46000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,19 +1228,19 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>177.51</v>
+        <v>245.33999999999997</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>32.72</v>
+        <v>58.790000000000006</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>30.32</v>
+        <v>54.33</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>240.54999999999998</v>
+        <v>358.46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2027,19 +2027,19 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1205.4099999999999</v>
+        <v>1273.2399999999998</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>124.37</v>
+        <v>150.44</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>266.24000000000007</v>
+        <v>290.25000000000006</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1596.02</v>
+        <v>1713.93</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,6 +358,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -393,6 +410,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,17 +748,17 @@
         <v>7</v>
       </c>
       <c r="L5" s="9">
-        <v>83.58</v>
+        <v>123.66</v>
       </c>
       <c r="M5" s="10">
-        <v>36.31</v>
+        <v>49.99</v>
       </c>
       <c r="N5" s="11">
-        <v>27.02</v>
+        <v>32.1</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>146.91</v>
+        <v>205.75</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,19 +1146,19 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>245.33999999999997</v>
+        <v>285.41999999999996</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>58.790000000000006</v>
+        <v>72.47</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>54.33</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>358.46000000000004</v>
+        <v>417.3</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,19 +1262,19 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>245.33999999999997</v>
+        <v>285.41999999999996</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>58.790000000000006</v>
+        <v>72.47</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>54.33</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>358.46</v>
+        <v>417.3</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1974,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="0"/>
+        <f>SUM(F43:H43)</f>
         <v>0</v>
       </c>
     </row>
@@ -2027,19 +2061,19 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1273.2399999999998</v>
+        <v>1313.3199999999997</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>150.44</v>
+        <v>164.12</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>290.25000000000006</v>
+        <v>295.33000000000004</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1713.93</v>
+        <v>1772.77</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -582,7 +582,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,11 +754,11 @@
         <v>49.99</v>
       </c>
       <c r="N5" s="11">
-        <v>32.1</v>
+        <v>49.69</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>205.75</v>
+        <v>223.34</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -788,17 +788,17 @@
         <v>8</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="M6" s="10">
-        <v>0</v>
+        <v>7.76</v>
       </c>
       <c r="N6" s="11">
-        <v>0</v>
+        <v>14.81</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.910000000000004</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1146,19 +1146,19 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>285.41999999999996</v>
+        <v>293.75999999999993</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>72.47</v>
+        <v>80.23</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>59.410000000000004</v>
+        <v>91.81</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>417.3</v>
+        <v>465.8</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,19 +1262,19 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>285.41999999999996</v>
+        <v>293.75999999999993</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>72.47</v>
+        <v>80.23</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>59.410000000000004</v>
+        <v>91.81</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>417.3</v>
+        <v>465.79999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2061,19 +2061,19 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1313.3199999999997</v>
+        <v>1321.6599999999999</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>164.12</v>
+        <v>171.88</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>295.33000000000004</v>
+        <v>327.73</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1772.77</v>
+        <v>1821.27</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -582,7 +582,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="9">
-        <v>8.34</v>
+        <v>44.12</v>
       </c>
       <c r="M6" s="10">
         <v>7.76</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="O6" s="12">
         <f t="shared" si="1"/>
-        <v>30.910000000000004</v>
+        <v>66.69</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>293.75999999999993</v>
+        <v>329.53999999999996</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>465.8</v>
+        <v>501.58</v>
       </c>
     </row>
   </sheetData>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>293.75999999999993</v>
+        <v>329.53999999999996</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>465.79999999999995</v>
+        <v>501.58</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2061,7 +2061,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1321.6599999999999</v>
+        <v>1357.4399999999998</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1821.27</v>
+        <v>1857.05</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,23 +358,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -410,23 +393,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,17 +754,17 @@
         <v>8</v>
       </c>
       <c r="L6" s="9">
-        <v>44.12</v>
+        <v>70.2</v>
       </c>
       <c r="M6" s="10">
         <v>7.76</v>
       </c>
       <c r="N6" s="11">
-        <v>14.81</v>
+        <v>26.37</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" si="1"/>
-        <v>66.69</v>
+        <v>104.33000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1146,7 +1112,7 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>329.53999999999996</v>
+        <v>355.61999999999995</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
@@ -1154,11 +1120,11 @@
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>91.81</v>
+        <v>103.37</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>501.58</v>
+        <v>539.22</v>
       </c>
     </row>
   </sheetData>
@@ -1171,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1228,7 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>329.53999999999996</v>
+        <v>355.61999999999995</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
@@ -1270,11 +1236,11 @@
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>91.81</v>
+        <v>103.37</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>501.58</v>
+        <v>539.22</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2061,7 +2027,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1357.4399999999998</v>
+        <v>1383.5199999999998</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -2069,11 +2035,11 @@
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>327.73</v>
+        <v>339.29000000000008</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1857.05</v>
+        <v>1894.69</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,17 +754,17 @@
         <v>8</v>
       </c>
       <c r="L6" s="9">
-        <v>70.2</v>
+        <v>77.290000000000006</v>
       </c>
       <c r="M6" s="10">
-        <v>7.76</v>
+        <v>12.98</v>
       </c>
       <c r="N6" s="11">
         <v>26.37</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" si="1"/>
-        <v>104.33000000000001</v>
+        <v>116.64000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>355.61999999999995</v>
+        <v>362.71</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>80.23</v>
+        <v>85.45</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>539.22</v>
+        <v>551.53</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,11 +1228,11 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>355.61999999999995</v>
+        <v>362.71</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>80.23</v>
+        <v>85.45</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>539.22</v>
+        <v>551.53</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2027,11 +2027,11 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1383.5199999999998</v>
+        <v>1390.61</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>171.88</v>
+        <v>177.10000000000002</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1894.69</v>
+        <v>1907</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,6 +358,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -393,6 +410,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +596,7 @@
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -794,17 +828,17 @@
         <v>9</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>92.74</v>
       </c>
       <c r="M7" s="10">
-        <v>0</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="N7" s="11">
-        <v>0</v>
+        <v>22.31</v>
       </c>
       <c r="O7" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>135.13</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,19 +1146,19 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>362.71</v>
+        <v>455.45</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>85.45</v>
+        <v>105.53</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>103.37</v>
+        <v>125.68</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>551.53</v>
+        <v>686.66</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
@@ -1228,19 +1262,19 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>362.71</v>
+        <v>455.45</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>85.45</v>
+        <v>105.53</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>103.37</v>
+        <v>125.68</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>551.53</v>
+        <v>686.66000000000008</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2027,19 +2061,19 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1390.61</v>
+        <v>1483.35</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>177.10000000000002</v>
+        <v>197.18</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>339.29000000000008</v>
+        <v>361.6</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1907</v>
+        <v>2042.13</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,23 +358,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -410,23 +393,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="9">
-        <v>92.74</v>
+        <v>105.8</v>
       </c>
       <c r="M7" s="10">
         <v>20.079999999999998</v>
@@ -838,7 +804,7 @@
       </c>
       <c r="O7" s="12">
         <f t="shared" si="1"/>
-        <v>135.13</v>
+        <v>148.19</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1146,7 +1112,7 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>455.45</v>
+        <v>468.51</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
@@ -1158,7 +1124,7 @@
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>686.66</v>
+        <v>699.72</v>
       </c>
     </row>
   </sheetData>
@@ -1171,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1228,7 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>455.45</v>
+        <v>468.51</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
@@ -1274,7 +1240,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>686.66000000000008</v>
+        <v>699.72</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2061,7 +2027,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1483.35</v>
+        <v>1496.4099999999999</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -2073,7 +2039,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2042.13</v>
+        <v>2055.19</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,17 +834,17 @@
         <v>10</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>63.16</v>
       </c>
       <c r="M8" s="10">
-        <v>0</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="N8" s="11">
-        <v>0</v>
+        <v>24.55</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>124.98</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,19 +1112,19 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>468.51</v>
+        <v>531.66999999999996</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>105.53</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>125.68</v>
+        <v>150.23000000000002</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>699.72</v>
+        <v>824.7</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,19 +1228,19 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>468.51</v>
+        <v>531.66999999999996</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>105.53</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>125.68</v>
+        <v>150.23000000000002</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>699.72</v>
+        <v>824.7</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2027,19 +2027,19 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1496.4099999999999</v>
+        <v>1559.5699999999997</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>197.18</v>
+        <v>234.45000000000002</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>361.6</v>
+        <v>386.15000000000009</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2055.19</v>
+        <v>2180.17</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,17 +834,17 @@
         <v>10</v>
       </c>
       <c r="L8" s="9">
-        <v>63.16</v>
+        <v>94.29</v>
       </c>
       <c r="M8" s="10">
         <v>37.270000000000003</v>
       </c>
       <c r="N8" s="11">
-        <v>24.55</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
-        <v>124.98</v>
+        <v>165.11</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>531.66999999999996</v>
+        <v>562.79999999999995</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
@@ -1120,11 +1120,11 @@
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>150.23000000000002</v>
+        <v>159.23000000000002</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>824.7</v>
+        <v>864.83</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>531.66999999999996</v>
+        <v>562.79999999999995</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>150.23000000000002</v>
+        <v>159.23000000000002</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>824.7</v>
+        <v>864.82999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2027,7 +2027,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1559.5699999999997</v>
+        <v>1590.6999999999998</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -2035,11 +2035,11 @@
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>386.15000000000009</v>
+        <v>395.15000000000009</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2180.17</v>
+        <v>2220.3000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,17 +834,17 @@
         <v>10</v>
       </c>
       <c r="L8" s="9">
-        <v>94.29</v>
+        <v>118.95</v>
       </c>
       <c r="M8" s="10">
-        <v>37.270000000000003</v>
+        <v>44.98</v>
       </c>
       <c r="N8" s="11">
-        <v>33.549999999999997</v>
+        <v>42.31</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
-        <v>165.11</v>
+        <v>206.24</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,19 +1112,19 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>562.79999999999995</v>
+        <v>587.46</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>142.80000000000001</v>
+        <v>150.51</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>159.23000000000002</v>
+        <v>167.99</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>864.83</v>
+        <v>905.96</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,19 +1228,19 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>562.79999999999995</v>
+        <v>587.46</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>142.80000000000001</v>
+        <v>150.51</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>159.23000000000002</v>
+        <v>167.99</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>864.82999999999993</v>
+        <v>905.96</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2027,19 +2027,19 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1590.6999999999998</v>
+        <v>1615.36</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>234.45000000000002</v>
+        <v>242.16</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>395.15000000000009</v>
+        <v>403.91000000000008</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2220.3000000000002</v>
+        <v>2261.4300000000003</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="9">
-        <v>118.95</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="M8" s="10">
         <v>44.98</v>
@@ -844,7 +844,7 @@
       </c>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
-        <v>206.24</v>
+        <v>229.48999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>587.46</v>
+        <v>610.71</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>905.96</v>
+        <v>929.21</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>587.46</v>
+        <v>610.71</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>905.96</v>
+        <v>929.21</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2027,7 +2027,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1615.36</v>
+        <v>1638.61</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2261.4300000000003</v>
+        <v>2284.6800000000003</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,14 +837,14 @@
         <v>142.19999999999999</v>
       </c>
       <c r="M8" s="10">
-        <v>44.98</v>
+        <v>51.06</v>
       </c>
       <c r="N8" s="11">
         <v>42.31</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
-        <v>229.48999999999998</v>
+        <v>235.57</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>150.51</v>
+        <v>156.59</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>929.21</v>
+        <v>935.29</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>150.51</v>
+        <v>156.59</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>929.21</v>
+        <v>935.29000000000008</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>242.16</v>
+        <v>248.24</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2284.6800000000003</v>
+        <v>2290.7600000000002</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="9">
-        <v>142.19999999999999</v>
+        <v>152.4</v>
       </c>
       <c r="M8" s="10">
         <v>51.06</v>
@@ -844,7 +844,7 @@
       </c>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
-        <v>235.57</v>
+        <v>245.77</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="L15" s="3">
         <f>SUM(L3:L14)</f>
-        <v>610.71</v>
+        <v>620.91</v>
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>935.29</v>
+        <v>945.49</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="F8" s="9">
         <f>Yearly!L15</f>
-        <v>610.71</v>
+        <v>620.91</v>
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>935.29000000000008</v>
+        <v>945.49</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2027,7 +2027,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="3">
         <f>SUM(F6:F45)</f>
-        <v>1638.61</v>
+        <v>1648.81</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2290.7600000000002</v>
+        <v>2300.96</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,14 +837,14 @@
         <v>152.4</v>
       </c>
       <c r="M8" s="10">
-        <v>51.06</v>
+        <v>58.75</v>
       </c>
       <c r="N8" s="11">
         <v>42.31</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
-        <v>245.77</v>
+        <v>253.46</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>156.59</v>
+        <v>164.28</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>945.49</v>
+        <v>953.18000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>156.59</v>
+        <v>164.28</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>945.49</v>
+        <v>953.18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>248.24</v>
+        <v>255.93</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2300.96</v>
+        <v>2308.65</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,11 +840,11 @@
         <v>58.75</v>
       </c>
       <c r="N8" s="11">
-        <v>42.31</v>
+        <v>60.22</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
-        <v>253.46</v>
+        <v>271.37</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -877,14 +877,14 @@
         <v>0</v>
       </c>
       <c r="M9" s="10">
-        <v>0</v>
+        <v>12.27</v>
       </c>
       <c r="N9" s="11">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.870000000000005</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -917,14 +917,14 @@
         <v>0</v>
       </c>
       <c r="M10" s="10">
-        <v>0</v>
+        <v>29.35</v>
       </c>
       <c r="N10" s="11">
-        <v>0</v>
+        <v>22.58</v>
       </c>
       <c r="O10" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>51.93</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1116,15 +1116,15 @@
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>164.28</v>
+        <v>205.9</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>167.99</v>
+        <v>235.07999999999998</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>953.18000000000006</v>
+        <v>1061.8900000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,15 +1232,15 @@
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>164.28</v>
+        <v>205.9</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>167.99</v>
+        <v>235.07999999999998</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>953.18</v>
+        <v>1061.8899999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2031,15 +2031,15 @@
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>255.93</v>
+        <v>297.55</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>403.91000000000008</v>
+        <v>471</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2308.65</v>
+        <v>2417.3599999999997</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,14 +957,14 @@
         <v>0</v>
       </c>
       <c r="M11" s="10">
-        <v>0</v>
+        <v>30.05</v>
       </c>
       <c r="N11" s="11">
-        <v>0</v>
+        <v>12.11</v>
       </c>
       <c r="O11" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.16</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1116,15 +1116,15 @@
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>205.9</v>
+        <v>235.95000000000002</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>235.07999999999998</v>
+        <v>247.19</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>1061.8900000000001</v>
+        <v>1104.0500000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,15 +1232,15 @@
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>205.9</v>
+        <v>235.95000000000002</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>235.07999999999998</v>
+        <v>247.19</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>1061.8899999999999</v>
+        <v>1104.05</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2031,15 +2031,15 @@
       </c>
       <c r="G46" s="4">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>297.55</v>
+        <v>327.60000000000002</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="1"/>
-        <v>471</v>
+        <v>483.11</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>2417.3599999999997</v>
+        <v>2459.52</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,6 +254,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,14 +961,14 @@
         <v>0</v>
       </c>
       <c r="M11" s="10">
-        <v>30.05</v>
+        <v>68.23</v>
       </c>
       <c r="N11" s="11">
-        <v>12.11</v>
+        <v>43.54</v>
       </c>
       <c r="O11" s="12">
-        <f t="shared" si="1"/>
-        <v>42.16</v>
+        <f>SUM(L11:N11)</f>
+        <v>111.77000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1116,15 +1120,15 @@
       </c>
       <c r="M15" s="4">
         <f>SUM(M3:M14)</f>
-        <v>235.95000000000002</v>
+        <v>274.13</v>
       </c>
       <c r="N15" s="5">
         <f>SUM(N3:N14)</f>
-        <v>247.19</v>
+        <v>278.62</v>
       </c>
       <c r="O15" s="6">
         <f>SUM(O3:O14)</f>
-        <v>1104.0500000000002</v>
+        <v>1173.6600000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,15 +1236,15 @@
       </c>
       <c r="G8" s="10">
         <f>Yearly!M15</f>
-        <v>235.95000000000002</v>
+        <v>274.13</v>
       </c>
       <c r="H8" s="11">
         <f>Yearly!N15</f>
-        <v>247.19</v>
+        <v>278.62</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>1104.05</v>
+        <v>1173.6599999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2025,21 +2029,21 @@
         <v>20</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="3">
+      <c r="F46" s="18">
         <f>SUM(F6:F45)</f>
         <v>1648.81</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="19">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>327.60000000000002</v>
-      </c>
-      <c r="H46" s="5">
+        <v>365.78</v>
+      </c>
+      <c r="H46" s="20">
         <f t="shared" si="1"/>
-        <v>483.11</v>
-      </c>
-      <c r="I46" s="6">
+        <v>514.54000000000008</v>
+      </c>
+      <c r="I46" s="21">
         <f t="shared" si="1"/>
-        <v>2459.52</v>
+        <v>2529.13</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
     <sheet name="All Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,14 +231,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -552,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,555 +576,555 @@
       </c>
     </row>
     <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>30.66</v>
       </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
         <f>SUM(D3:F3)</f>
         <v>30.66</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="5">
         <v>57.62</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="6">
         <v>12.74</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="7">
         <v>5.26</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="8">
         <f>SUM(L3:N3)</f>
         <v>75.62</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>73.209999999999994</v>
       </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
         <f t="shared" ref="G4:G14" si="0">SUM(D4:F4)</f>
         <v>73.209999999999994</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="3">
         <v>2</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="5">
         <v>104.14</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="6">
         <v>9.74</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="7">
         <v>22.05</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="8">
         <f t="shared" ref="O4:O14" si="1">SUM(L4:N4)</f>
         <v>135.93</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>85.97</v>
       </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
         <v>31.95</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>117.92</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="5">
         <v>123.66</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="6">
         <v>49.99</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="7">
         <v>49.69</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="8">
         <f t="shared" si="1"/>
         <v>223.34</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>29.55</v>
       </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
         <v>7.66</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>37.21</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>4</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="5">
         <v>77.290000000000006</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="6">
         <v>12.98</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="7">
         <v>26.37</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="8">
         <f t="shared" si="1"/>
         <v>116.64000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>70.34</v>
       </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>70.34</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>5</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="5">
         <v>105.8</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="6">
         <v>20.079999999999998</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="7">
         <v>22.31</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="8">
         <f t="shared" si="1"/>
         <v>148.19</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>104.62</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>1.68</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <v>39.5</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>145.80000000000001</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>6</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="5">
         <v>152.4</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="6">
         <v>58.75</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="7">
         <v>60.22</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="8">
         <f t="shared" si="1"/>
         <v>271.37</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>14.53</v>
       </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
         <v>7.82</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>22.35</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
         <v>12.27</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="7">
         <v>26.6</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="8">
         <f t="shared" si="1"/>
         <v>38.870000000000005</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>69.45</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>9.16</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>78.61</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="3">
         <v>8</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
         <v>29.35</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="7">
         <v>22.58</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="8">
         <f t="shared" si="1"/>
         <v>51.93</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>94.57</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <v>31.32</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>42.99</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>168.88</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>9</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>68.23</v>
-      </c>
-      <c r="N11" s="11">
-        <v>43.54</v>
-      </c>
-      <c r="O11" s="12">
-        <f>SUM(L11:N11)</f>
-        <v>111.77000000000001</v>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>84.02</v>
+      </c>
+      <c r="N11" s="7">
+        <v>65.739999999999995</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="1"/>
+        <v>149.76</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>35.24</v>
       </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
         <v>13.08</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>48.32</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>10</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12">
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
+      <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>102.41</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="7">
         <v>12.96</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>124.57</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>11</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <v>133.62</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="6">
         <v>40.29</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="7">
         <v>49.22</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>223.13</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="3">
         <v>12</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12">
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="14">
         <f>SUM(D3:D14)</f>
         <v>844.17</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="15">
         <f>SUM(E3:E14)</f>
         <v>91.65</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="16">
         <f>SUM(F3:F14)</f>
         <v>205.18000000000004</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="17">
         <f>SUM(G3:G14)</f>
         <v>1141</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="14">
         <f>SUM(L3:L14)</f>
         <v>620.91</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="15">
         <f>SUM(M3:M14)</f>
-        <v>274.13</v>
-      </c>
-      <c r="N15" s="5">
+        <v>289.92</v>
+      </c>
+      <c r="N15" s="16">
         <f>SUM(N3:N14)</f>
-        <v>278.62</v>
-      </c>
-      <c r="O15" s="6">
+        <v>300.82</v>
+      </c>
+      <c r="O15" s="17">
         <f>SUM(O3:O14)</f>
-        <v>1173.6600000000001</v>
+        <v>1211.6500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1141,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,888 +1158,888 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <v>2015</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <v>183.73</v>
       </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
         <v>30.74</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="8">
         <f>SUM(F6:H6)</f>
         <v>214.47</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <v>2016</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <f>Yearly!D15</f>
         <v>844.17</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
         <f>Yearly!E15</f>
         <v>91.65</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <f>Yearly!F15</f>
         <v>205.18000000000004</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
         <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
         <v>1141</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <v>2017</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="5">
         <f>Yearly!L15</f>
         <v>620.91</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="6">
         <f>Yearly!M15</f>
-        <v>274.13</v>
-      </c>
-      <c r="H8" s="11">
+        <v>289.92</v>
+      </c>
+      <c r="H8" s="7">
         <f>Yearly!N15</f>
-        <v>278.62</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="0"/>
-        <v>1173.6599999999999</v>
+        <v>300.82</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>1211.6499999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <v>2018</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
         <v>2019</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>6</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <v>2020</v>
       </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>7</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="4">
         <v>2021</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="4">
         <v>2022</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="4">
         <v>2023</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>10</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="4">
         <v>2024</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>11</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="4">
         <v>2025</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D17" s="7">
+      <c r="D17" s="3">
         <v>12</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="4">
         <v>2026</v>
       </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>13</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="4">
         <v>2027</v>
       </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>14</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="4">
         <v>2028</v>
       </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>15</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="4">
         <v>2029</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>16</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="4">
         <v>2030</v>
       </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>17</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="4">
         <v>2031</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>18</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="4">
         <v>2032</v>
       </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D24" s="7">
+      <c r="D24" s="3">
         <v>19</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="4">
         <v>2033</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="7">
+      <c r="D25" s="3">
         <v>20</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="4">
         <v>2034</v>
       </c>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12">
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="7">
+      <c r="D26" s="3">
         <v>21</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="4">
         <v>2035</v>
       </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D27" s="7">
+      <c r="D27" s="3">
         <v>22</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="4">
         <v>2036</v>
       </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D28" s="7">
+      <c r="D28" s="3">
         <v>23</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="4">
         <v>2037</v>
       </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12">
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D29" s="7">
+      <c r="D29" s="3">
         <v>24</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="4">
         <v>2038</v>
       </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D30" s="7">
+      <c r="D30" s="3">
         <v>25</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="4">
         <v>2039</v>
       </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="12">
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D31" s="7">
+      <c r="D31" s="3">
         <v>26</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="4">
         <v>2040</v>
       </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="12">
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D32" s="7">
+      <c r="D32" s="3">
         <v>27</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="4">
         <v>2041</v>
       </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="12">
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D33" s="7">
+      <c r="D33" s="3">
         <v>28</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="4">
         <v>2042</v>
       </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D34" s="7">
+      <c r="D34" s="3">
         <v>29</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="4">
         <v>2043</v>
       </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D35" s="7">
+      <c r="D35" s="3">
         <v>30</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="4">
         <v>2044</v>
       </c>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="12">
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D36" s="7">
+      <c r="D36" s="3">
         <v>31</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="4">
         <v>2045</v>
       </c>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="12">
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D37" s="7">
+      <c r="D37" s="3">
         <v>32</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="4">
         <v>2046</v>
       </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="12">
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D38" s="7">
+      <c r="D38" s="3">
         <v>33</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="4">
         <v>2047</v>
       </c>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="12">
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D39" s="7">
+      <c r="D39" s="3">
         <v>34</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="4">
         <v>2048</v>
       </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="12">
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D40" s="7">
+      <c r="D40" s="3">
         <v>35</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="4">
         <v>2049</v>
       </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="10">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="12">
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D41" s="7">
+      <c r="D41" s="3">
         <v>36</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="4">
         <v>2050</v>
       </c>
-      <c r="F41" s="9">
-        <v>0</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0</v>
-      </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="12">
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D42" s="7">
+      <c r="D42" s="3">
         <v>37</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="4">
         <v>2051</v>
       </c>
-      <c r="F42" s="9">
-        <v>0</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="12">
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D43" s="7">
+      <c r="D43" s="3">
         <v>38</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="4">
         <v>2052</v>
       </c>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="12">
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
         <f>SUM(F43:H43)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D44" s="7">
+      <c r="D44" s="3">
         <v>39</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="4">
         <v>2053</v>
       </c>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="12">
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D45" s="7">
+      <c r="D45" s="3">
         <v>40</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="4">
         <v>2054</v>
       </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="10">
-        <v>0</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="12">
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="18">
+      <c r="E46" s="4"/>
+      <c r="F46" s="14">
         <f>SUM(F6:F45)</f>
         <v>1648.81</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="15">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>365.78</v>
-      </c>
-      <c r="H46" s="20">
+        <v>381.57000000000005</v>
+      </c>
+      <c r="H46" s="16">
         <f t="shared" si="1"/>
-        <v>514.54000000000008</v>
-      </c>
-      <c r="I46" s="21">
+        <v>536.74</v>
+      </c>
+      <c r="I46" s="17">
         <f t="shared" si="1"/>
-        <v>2529.13</v>
+        <v>2567.12</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,14 +997,14 @@
         <v>0</v>
       </c>
       <c r="M12" s="6">
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>27.17</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32.44</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1037,14 +1037,14 @@
         <v>0</v>
       </c>
       <c r="M13" s="6">
-        <v>0</v>
+        <v>32.19</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>28.25</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1116,15 +1116,15 @@
       </c>
       <c r="M15" s="15">
         <f>SUM(M3:M14)</f>
-        <v>289.92</v>
+        <v>327.38</v>
       </c>
       <c r="N15" s="16">
         <f>SUM(N3:N14)</f>
-        <v>300.82</v>
+        <v>356.24</v>
       </c>
       <c r="O15" s="17">
         <f>SUM(O3:O14)</f>
-        <v>1211.6500000000001</v>
+        <v>1304.5300000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,15 +1232,15 @@
       </c>
       <c r="G8" s="6">
         <f>Yearly!M15</f>
-        <v>289.92</v>
+        <v>327.38</v>
       </c>
       <c r="H8" s="7">
         <f>Yearly!N15</f>
-        <v>300.82</v>
+        <v>356.24</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>1211.6499999999999</v>
+        <v>1304.53</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2031,15 +2031,15 @@
       </c>
       <c r="G46" s="15">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>381.57000000000005</v>
+        <v>419.03</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="1"/>
-        <v>536.74</v>
+        <v>592.16000000000008</v>
       </c>
       <c r="I46" s="17">
         <f t="shared" si="1"/>
-        <v>2567.12</v>
+        <v>2660</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,14 +1077,14 @@
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <v>0</v>
+        <v>30.63</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33.81</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1116,15 +1116,15 @@
       </c>
       <c r="M15" s="15">
         <f>SUM(M3:M14)</f>
-        <v>327.38</v>
+        <v>358.01</v>
       </c>
       <c r="N15" s="16">
         <f>SUM(N3:N14)</f>
-        <v>356.24</v>
+        <v>359.42</v>
       </c>
       <c r="O15" s="17">
         <f>SUM(O3:O14)</f>
-        <v>1304.5300000000002</v>
+        <v>1338.3400000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,15 +1232,15 @@
       </c>
       <c r="G8" s="6">
         <f>Yearly!M15</f>
-        <v>327.38</v>
+        <v>358.01</v>
       </c>
       <c r="H8" s="7">
         <f>Yearly!N15</f>
-        <v>356.24</v>
+        <v>359.42</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>1304.53</v>
+        <v>1338.34</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2031,15 +2031,15 @@
       </c>
       <c r="G46" s="15">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>419.03</v>
+        <v>449.65999999999997</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="1"/>
-        <v>592.16000000000008</v>
+        <v>595.34</v>
       </c>
       <c r="I46" s="17">
         <f t="shared" si="1"/>
-        <v>2660</v>
+        <v>2693.81</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,14 +1077,14 @@
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <v>30.63</v>
+        <v>61.98</v>
       </c>
       <c r="N14" s="7">
-        <v>3.18</v>
+        <v>28.84</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" si="1"/>
-        <v>33.81</v>
+        <v>90.82</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1116,15 +1116,15 @@
       </c>
       <c r="M15" s="15">
         <f>SUM(M3:M14)</f>
-        <v>358.01</v>
+        <v>389.36</v>
       </c>
       <c r="N15" s="16">
         <f>SUM(N3:N14)</f>
-        <v>359.42</v>
+        <v>385.08</v>
       </c>
       <c r="O15" s="17">
         <f>SUM(O3:O14)</f>
-        <v>1338.3400000000001</v>
+        <v>1395.3500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,15 +1232,15 @@
       </c>
       <c r="G8" s="6">
         <f>Yearly!M15</f>
-        <v>358.01</v>
+        <v>389.36</v>
       </c>
       <c r="H8" s="7">
         <f>Yearly!N15</f>
-        <v>359.42</v>
+        <v>385.08</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>1338.34</v>
+        <v>1395.35</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2031,15 +2031,15 @@
       </c>
       <c r="G46" s="15">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>449.65999999999997</v>
+        <v>481.01</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="1"/>
-        <v>595.34</v>
+        <v>621</v>
       </c>
       <c r="I46" s="17">
         <f t="shared" si="1"/>
-        <v>2693.81</v>
+        <v>2750.8199999999997</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,14 +1077,14 @@
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <v>61.98</v>
+        <v>97.44</v>
       </c>
       <c r="N14" s="7">
-        <v>28.84</v>
+        <v>59.28</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" si="1"/>
-        <v>90.82</v>
+        <v>156.72</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1116,15 +1116,15 @@
       </c>
       <c r="M15" s="15">
         <f>SUM(M3:M14)</f>
-        <v>389.36</v>
+        <v>424.82</v>
       </c>
       <c r="N15" s="16">
         <f>SUM(N3:N14)</f>
-        <v>385.08</v>
+        <v>415.52</v>
       </c>
       <c r="O15" s="17">
         <f>SUM(O3:O14)</f>
-        <v>1395.3500000000001</v>
+        <v>1461.2500000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,15 +1232,15 @@
       </c>
       <c r="G8" s="6">
         <f>Yearly!M15</f>
-        <v>389.36</v>
+        <v>424.82</v>
       </c>
       <c r="H8" s="7">
         <f>Yearly!N15</f>
-        <v>385.08</v>
+        <v>415.52</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>1395.35</v>
+        <v>1461.25</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2031,15 +2031,15 @@
       </c>
       <c r="G46" s="15">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>481.01</v>
+        <v>516.47</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="1"/>
-        <v>621</v>
+        <v>651.44000000000005</v>
       </c>
       <c r="I46" s="17">
         <f t="shared" si="1"/>
-        <v>2750.8199999999997</v>
+        <v>2816.7200000000003</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,14 +1077,14 @@
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <v>97.44</v>
+        <v>105.36</v>
       </c>
       <c r="N14" s="7">
         <v>59.28</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" si="1"/>
-        <v>156.72</v>
+        <v>164.64</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M15" s="15">
         <f>SUM(M3:M14)</f>
-        <v>424.82</v>
+        <v>432.74</v>
       </c>
       <c r="N15" s="16">
         <f>SUM(N3:N14)</f>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="O15" s="17">
         <f>SUM(O3:O14)</f>
-        <v>1461.2500000000002</v>
+        <v>1469.17</v>
       </c>
     </row>
   </sheetData>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G8" s="6">
         <f>Yearly!M15</f>
-        <v>424.82</v>
+        <v>432.74</v>
       </c>
       <c r="H8" s="7">
         <f>Yearly!N15</f>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>1461.25</v>
+        <v>1469.17</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G46" s="15">
         <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
-        <v>516.47</v>
+        <v>524.39</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="1"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="I46" s="17">
         <f t="shared" si="1"/>
-        <v>2816.7200000000003</v>
+        <v>2824.6400000000003</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Month</t>
   </si>
@@ -92,6 +92,9 @@
   <si>
     <t>All Time Dividends</t>
   </si>
+  <si>
+    <t>Traditional IRA</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +221,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -231,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,6 +269,8 @@
     <xf numFmtId="4" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O15"/>
+  <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,9 +573,9 @@
     <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
@@ -1077,14 +1094,14 @@
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <v>105.36</v>
+        <v>97.44</v>
       </c>
       <c r="N14" s="7">
         <v>59.28</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" si="1"/>
-        <v>164.64</v>
+        <v>156.72</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1116,7 +1133,7 @@
       </c>
       <c r="M15" s="15">
         <f>SUM(M3:M14)</f>
-        <v>432.74</v>
+        <v>424.82</v>
       </c>
       <c r="N15" s="16">
         <f>SUM(N3:N14)</f>
@@ -1124,7 +1141,345 @@
       </c>
       <c r="O15" s="17">
         <f>SUM(O3:O14)</f>
-        <v>1469.17</v>
+        <v>1461.2500000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B23" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>7.92</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <f>SUM(D25:G25)</f>
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" ref="H26:H36" si="2">SUM(D26:G26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>7</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>11</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="15">
+        <f>SUM(D25:D36)</f>
+        <v>7.92</v>
+      </c>
+      <c r="E37" s="16">
+        <f>SUM(E25:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="19">
+        <f>SUM(F25:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="14">
+        <f>SUM(G25:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="17">
+        <f>SUM(H25:H36)</f>
+        <v>7.92</v>
       </c>
     </row>
   </sheetData>
@@ -1135,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,898 +1501,1030 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="4">
         <v>2015</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>30.74</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <v>183.73</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>30.74</v>
-      </c>
-      <c r="I6" s="8">
-        <f>SUM(F6:H6)</f>
+      <c r="J6" s="8">
+        <f>SUM(F6:I6)</f>
         <v>214.47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="4">
         <v>2016</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
+        <f>Yearly!E15</f>
+        <v>91.65</v>
+      </c>
+      <c r="G7" s="7">
+        <f>Yearly!F15</f>
+        <v>205.18000000000004</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
         <f>Yearly!D15</f>
         <v>844.17</v>
       </c>
-      <c r="G7" s="6">
-        <f>Yearly!E15</f>
-        <v>91.65</v>
-      </c>
-      <c r="H7" s="7">
-        <f>Yearly!F15</f>
-        <v>205.18000000000004</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" ref="I7:I45" si="0">SUM(F7:H7)</f>
+      <c r="J7" s="8">
+        <f t="shared" ref="J7:J45" si="0">SUM(F7:I7)</f>
         <v>1141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D8" s="3">
         <v>3</v>
       </c>
       <c r="E8" s="4">
         <v>2017</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
+        <f>Yearly!M15</f>
+        <v>424.82</v>
+      </c>
+      <c r="G8" s="7">
+        <f>Yearly!N15</f>
+        <v>415.52</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
         <f>Yearly!L15</f>
         <v>620.91</v>
       </c>
-      <c r="G8" s="6">
-        <f>Yearly!M15</f>
-        <v>432.74</v>
-      </c>
-      <c r="H8" s="7">
-        <f>Yearly!N15</f>
-        <v>415.52</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="0"/>
-        <v>1469.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J8" s="8">
+        <f t="shared" si="0"/>
+        <v>1461.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D9" s="3">
         <v>4</v>
       </c>
       <c r="E9" s="4">
         <v>2018</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F9" s="6">
+        <f>Yearly!D37</f>
+        <v>7.92</v>
+      </c>
+      <c r="G9" s="7">
+        <f>Yearly!E37</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <f>Yearly!F37</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <f>Yearly!G37</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="0"/>
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D10" s="3">
         <v>5</v>
       </c>
       <c r="E10" s="4">
         <v>2019</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D11" s="3">
         <v>6</v>
       </c>
       <c r="E11" s="4">
         <v>2020</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D12" s="3">
         <v>7</v>
       </c>
       <c r="E12" s="4">
         <v>2021</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D13" s="3">
         <v>8</v>
       </c>
       <c r="E13" s="4">
         <v>2022</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D14" s="3">
         <v>9</v>
       </c>
       <c r="E14" s="4">
         <v>2023</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D15" s="3">
         <v>10</v>
       </c>
       <c r="E15" s="4">
         <v>2024</v>
       </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D16" s="3">
         <v>11</v>
       </c>
       <c r="E16" s="4">
         <v>2025</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D17" s="3">
         <v>12</v>
       </c>
       <c r="E17" s="4">
         <v>2026</v>
       </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D18" s="3">
         <v>13</v>
       </c>
       <c r="E18" s="4">
         <v>2027</v>
       </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D19" s="3">
         <v>14</v>
       </c>
       <c r="E19" s="4">
         <v>2028</v>
       </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D20" s="3">
         <v>15</v>
       </c>
       <c r="E20" s="4">
         <v>2029</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D21" s="3">
         <v>16</v>
       </c>
       <c r="E21" s="4">
         <v>2030</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="3">
         <v>17</v>
       </c>
       <c r="E22" s="4">
         <v>2031</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D23" s="3">
         <v>18</v>
       </c>
       <c r="E23" s="4">
         <v>2032</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D24" s="3">
         <v>19</v>
       </c>
       <c r="E24" s="4">
         <v>2033</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D25" s="3">
         <v>20</v>
       </c>
       <c r="E25" s="4">
         <v>2034</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D26" s="3">
         <v>21</v>
       </c>
       <c r="E26" s="4">
         <v>2035</v>
       </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D27" s="3">
         <v>22</v>
       </c>
       <c r="E27" s="4">
         <v>2036</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="3">
         <v>23</v>
       </c>
       <c r="E28" s="4">
         <v>2037</v>
       </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D29" s="3">
         <v>24</v>
       </c>
       <c r="E29" s="4">
         <v>2038</v>
       </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D30" s="3">
         <v>25</v>
       </c>
       <c r="E30" s="4">
         <v>2039</v>
       </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D31" s="3">
         <v>26</v>
       </c>
       <c r="E31" s="4">
         <v>2040</v>
       </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D32" s="3">
         <v>27</v>
       </c>
       <c r="E32" s="4">
         <v>2041</v>
       </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D33" s="3">
         <v>28</v>
       </c>
       <c r="E33" s="4">
         <v>2042</v>
       </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D34" s="3">
         <v>29</v>
       </c>
       <c r="E34" s="4">
         <v>2043</v>
       </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D35" s="3">
         <v>30</v>
       </c>
       <c r="E35" s="4">
         <v>2044</v>
       </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D36" s="3">
         <v>31</v>
       </c>
       <c r="E36" s="4">
         <v>2045</v>
       </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D37" s="3">
         <v>32</v>
       </c>
       <c r="E37" s="4">
         <v>2046</v>
       </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D38" s="3">
         <v>33</v>
       </c>
       <c r="E38" s="4">
         <v>2047</v>
       </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D39" s="3">
         <v>34</v>
       </c>
       <c r="E39" s="4">
         <v>2048</v>
       </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D40" s="3">
         <v>35</v>
       </c>
       <c r="E40" s="4">
         <v>2049</v>
       </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D41" s="3">
         <v>36</v>
       </c>
       <c r="E41" s="4">
         <v>2050</v>
       </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D42" s="3">
         <v>37</v>
       </c>
       <c r="E42" s="4">
         <v>2051</v>
       </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D43" s="3">
         <v>38</v>
       </c>
       <c r="E43" s="4">
         <v>2052</v>
       </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="8">
-        <f>SUM(F43:H43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D44" s="3">
         <v>39</v>
       </c>
       <c r="E44" s="4">
         <v>2053</v>
       </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="18">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D45" s="3">
         <v>40</v>
       </c>
       <c r="E45" s="4">
         <v>2054</v>
       </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D46" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="14">
-        <f>SUM(F6:F45)</f>
-        <v>1648.81</v>
-      </c>
-      <c r="G46" s="15">
-        <f t="shared" ref="G46:I46" si="1">SUM(G6:G45)</f>
+      <c r="F46" s="15">
+        <f t="shared" ref="F46:J46" si="1">SUM(F6:F45)</f>
         <v>524.39</v>
       </c>
-      <c r="H46" s="16">
+      <c r="G46" s="16">
         <f t="shared" si="1"/>
         <v>651.44000000000005</v>
       </c>
-      <c r="I46" s="17">
+      <c r="H46" s="19">
+        <f>SUM(H6:H45)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="14">
+        <f>SUM(I6:I45)</f>
+        <v>1648.81</v>
+      </c>
+      <c r="J46" s="17">
         <f t="shared" si="1"/>
         <v>2824.6400000000003</v>
       </c>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,11 +977,11 @@
         <v>84.02</v>
       </c>
       <c r="N11" s="7">
-        <v>65.739999999999995</v>
+        <v>61.75</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" si="1"/>
-        <v>149.76</v>
+        <v>145.76999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1097,11 +1097,11 @@
         <v>97.44</v>
       </c>
       <c r="N14" s="7">
-        <v>59.28</v>
+        <v>62.61</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" si="1"/>
-        <v>156.72</v>
+        <v>160.05000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1137,11 +1137,11 @@
       </c>
       <c r="N15" s="16">
         <f>SUM(N3:N14)</f>
-        <v>415.52</v>
+        <v>414.86</v>
       </c>
       <c r="O15" s="17">
         <f>SUM(O3:O14)</f>
-        <v>1461.2500000000002</v>
+        <v>1460.5900000000001</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -1177,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="6">
-        <v>7.92</v>
+        <v>16.03</v>
       </c>
       <c r="E25" s="7">
         <v>0</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="H25" s="8">
         <f>SUM(D25:G25)</f>
-        <v>7.92</v>
+        <v>16.03</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D37" s="15">
         <f>SUM(D25:D36)</f>
-        <v>7.92</v>
+        <v>16.03</v>
       </c>
       <c r="E37" s="16">
         <f>SUM(E25:E36)</f>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H37" s="17">
         <f>SUM(H25:H36)</f>
-        <v>7.92</v>
+        <v>16.03</v>
       </c>
     </row>
   </sheetData>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G8" s="7">
         <f>Yearly!N15</f>
-        <v>415.52</v>
+        <v>414.86</v>
       </c>
       <c r="H8" s="18">
         <v>0</v>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>1461.25</v>
+        <v>1460.5900000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="F9" s="6">
         <f>Yearly!D37</f>
-        <v>7.92</v>
+        <v>16.03</v>
       </c>
       <c r="G9" s="7">
         <f>Yearly!E37</f>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>7.92</v>
+        <v>16.03</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -2510,11 +2510,11 @@
       <c r="E46" s="4"/>
       <c r="F46" s="15">
         <f t="shared" ref="F46:J46" si="1">SUM(F6:F45)</f>
-        <v>524.39</v>
+        <v>532.5</v>
       </c>
       <c r="G46" s="16">
         <f t="shared" si="1"/>
-        <v>651.44000000000005</v>
+        <v>650.78000000000009</v>
       </c>
       <c r="H46" s="19">
         <f>SUM(H6:H45)</f>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="J46" s="17">
         <f t="shared" si="1"/>
-        <v>2824.6400000000003</v>
+        <v>2832.0900000000006</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -565,7 +565,7 @@
   <dimension ref="B1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,11 +1097,11 @@
         <v>97.44</v>
       </c>
       <c r="N14" s="7">
-        <v>62.61</v>
+        <v>77.8</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" si="1"/>
-        <v>160.05000000000001</v>
+        <v>175.24</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1137,11 +1137,11 @@
       </c>
       <c r="N15" s="16">
         <f>SUM(N3:N14)</f>
-        <v>414.86</v>
+        <v>430.05</v>
       </c>
       <c r="O15" s="17">
         <f>SUM(O3:O14)</f>
-        <v>1460.5900000000001</v>
+        <v>1475.7800000000002</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G8" s="7">
         <f>Yearly!N15</f>
-        <v>414.86</v>
+        <v>430.05</v>
       </c>
       <c r="H8" s="18">
         <v>0</v>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>1460.5900000000001</v>
+        <v>1475.78</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="G46" s="16">
         <f t="shared" si="1"/>
-        <v>650.78000000000009</v>
+        <v>665.97</v>
       </c>
       <c r="H46" s="19">
         <f>SUM(H6:H45)</f>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="J46" s="17">
         <f t="shared" si="1"/>
-        <v>2832.0900000000006</v>
+        <v>2847.28</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>401K</t>
-  </si>
-  <si>
-    <t>Suzie's Roth IRA</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Traditional IRA</t>
+  </si>
+  <si>
+    <t>Roth IRA</t>
   </si>
 </sst>
 </file>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +603,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>4</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -618,10 +618,10 @@
         <v>2</v>
       </c>
       <c r="N2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>3</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
         <v>30.66</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="5">
         <v>57.62</v>
@@ -669,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>73.209999999999994</v>
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" s="5">
         <v>104.14</v>
@@ -709,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5">
         <v>85.97</v>
@@ -728,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L5" s="5">
         <v>123.66</v>
@@ -749,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
         <v>29.55</v>
@@ -768,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="5">
         <v>77.290000000000006</v>
@@ -789,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
         <v>70.34</v>
@@ -808,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7" s="5">
         <v>105.8</v>
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5">
         <v>104.62</v>
@@ -848,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" s="5">
         <v>152.4</v>
@@ -869,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5">
         <v>14.53</v>
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5">
         <v>69.45</v>
@@ -928,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5">
         <v>94.57</v>
@@ -968,7 +968,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5">
         <v>35.24</v>
@@ -1008,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5">
         <v>102.41</v>
@@ -1048,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5">
         <v>133.62</v>
@@ -1088,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="14">
         <f>SUM(D3:D14)</f>
@@ -1125,7 +1125,7 @@
         <v>1141</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="14">
         <f>SUM(L3:L14)</f>
@@ -1157,16 +1157,16 @@
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1174,13 +1174,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="6">
         <v>16.03</v>
       </c>
       <c r="E25" s="7">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="F25" s="18">
         <v>0</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="H25" s="8">
         <f>SUM(D25:G25)</f>
-        <v>16.03</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1198,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="6">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="6">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="6">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="6">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="6">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="6">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="6">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="6">
         <v>0</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="37" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C37" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="15">
         <f>SUM(D25:D36)</f>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="E37" s="16">
         <f>SUM(E25:E36)</f>
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="F37" s="19">
         <f>SUM(F25:F36)</f>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H37" s="17">
         <f>SUM(H25:H36)</f>
-        <v>16.03</v>
+        <v>28.25</v>
       </c>
     </row>
   </sheetData>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,27 +1510,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="13" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="G9" s="7">
         <f>Yearly!E37</f>
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="H9" s="18">
         <f>Yearly!F37</f>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>16.03</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -2505,7 +2505,7 @@
     </row>
     <row r="46" spans="4:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D46" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="15">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="G46" s="16">
         <f t="shared" si="1"/>
-        <v>665.97</v>
+        <v>678.19</v>
       </c>
       <c r="H46" s="19">
         <f>SUM(H6:H45)</f>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="J46" s="17">
         <f t="shared" si="1"/>
-        <v>2847.28</v>
+        <v>2859.5</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="6">
-        <v>16.03</v>
+        <v>23.65</v>
       </c>
       <c r="E25" s="7">
         <v>12.22</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="H25" s="8">
         <f>SUM(D25:G25)</f>
-        <v>28.25</v>
+        <v>35.869999999999997</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D37" s="15">
         <f>SUM(D25:D36)</f>
-        <v>16.03</v>
+        <v>23.65</v>
       </c>
       <c r="E37" s="16">
         <f>SUM(E25:E36)</f>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H37" s="17">
         <f>SUM(H25:H36)</f>
-        <v>28.25</v>
+        <v>35.869999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,11 +1550,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>183.73</v>
+        <v>0</v>
       </c>
       <c r="J6" s="8">
         <f>SUM(F6:I6)</f>
-        <v>214.47</v>
+        <v>30.74</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1576,12 +1576,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f>Yearly!D15</f>
-        <v>844.17</v>
+        <v>0</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J45" si="0">SUM(F7:I7)</f>
-        <v>1141</v>
+        <v>296.83000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1603,12 +1602,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f>Yearly!L15</f>
-        <v>620.91</v>
+        <v>0</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>1475.78</v>
+        <v>854.87</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1620,7 +1618,7 @@
       </c>
       <c r="F9" s="6">
         <f>Yearly!D37</f>
-        <v>16.03</v>
+        <v>23.65</v>
       </c>
       <c r="G9" s="7">
         <f>Yearly!E37</f>
@@ -1636,7 +1634,7 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>28.25</v>
+        <v>35.869999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -2510,7 +2508,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="15">
         <f t="shared" ref="F46:J46" si="1">SUM(F6:F45)</f>
-        <v>532.5</v>
+        <v>540.12</v>
       </c>
       <c r="G46" s="16">
         <f t="shared" si="1"/>
@@ -2522,11 +2520,11 @@
       </c>
       <c r="I46" s="14">
         <f>SUM(I6:I45)</f>
-        <v>1648.81</v>
+        <v>0</v>
       </c>
       <c r="J46" s="17">
-        <f t="shared" si="1"/>
-        <v>2859.5</v>
+        <f>SUM(J6:J45)</f>
+        <v>1218.31</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
+++ b/DividendLiberty/bin/Debug/Dividend Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="1" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="6">
-        <v>23.65</v>
+        <v>29.51</v>
       </c>
       <c r="E25" s="7">
         <v>12.22</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="H25" s="8">
         <f>SUM(D25:G25)</f>
-        <v>35.869999999999997</v>
+        <v>41.730000000000004</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D37" s="15">
         <f>SUM(D25:D36)</f>
-        <v>23.65</v>
+        <v>29.51</v>
       </c>
       <c r="E37" s="16">
         <f>SUM(E25:E36)</f>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H37" s="17">
         <f>SUM(H25:H36)</f>
-        <v>35.869999999999997</v>
+        <v>41.730000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="F9" s="6">
         <f>Yearly!D37</f>
-        <v>23.65</v>
+        <v>29.51</v>
       </c>
       <c r="G9" s="7">
         <f>Yearly!E37</f>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>35.869999999999997</v>
+        <v>41.730000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -2507,8 +2507,8 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="15">
-        <f t="shared" ref="F46:J46" si="1">SUM(F6:F45)</f>
-        <v>540.12</v>
+        <f t="shared" ref="F46:G46" si="1">SUM(F6:F45)</f>
+        <v>545.98</v>
       </c>
       <c r="G46" s="16">
         <f t="shared" si="1"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="J46" s="17">
         <f>SUM(J6:J45)</f>
-        <v>1218.31</v>
+        <v>1224.17</v>
       </c>
     </row>
   </sheetData>
